--- a/biology/Zoologie/Robert_Bakker/Robert_Bakker.xlsx
+++ b/biology/Zoologie/Robert_Bakker/Robert_Bakker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Thomas Bakker (1945-) est un paléontologue américain spécialiste des dinosaures. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il marque la paléontologie dès son premier article, paru en 1975 et intitulé Dinosaur Renaissance. Ses études portent sur l'éthologie des dinosaures. Il est le premier à montrer un instinct maternel chez ces animaux grâce à ses travaux sur l'Allosaurus. Dès 1968, il appuie également la théorie selon laquelle les dinosaures sont homéothermes et celle des équilibres ponctués pour ces espèces.
 Populaire, s'habillant dans un style cowboy, il vulgarise la paléontologie auprès du public américain. Le « Dr Robert Burke » du film Le Monde perdu : Jurassic Park de Steven Spielberg est une caricature de Bakker. Bakker est aussi un prédicateur pentecôtiste partisan d'une théorie théiste de l'évolution.
